--- a/aDiary/usrdata/usuarios.xlsx
+++ b/aDiary/usrdata/usuarios.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t/>
   </si>
@@ -26,16 +26,13 @@
     <t>false</t>
   </si>
   <si>
-    <t>nuevo</t>
+    <t>Antonio</t>
   </si>
   <si>
-    <t>k</t>
+    <t>wena</t>
   </si>
   <si>
-    <t>admin-nuevo</t>
-  </si>
-  <si>
-    <t>j</t>
+    <t>admin-Antonio</t>
   </si>
 </sst>
 </file>
@@ -131,7 +128,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/aDiary/usrdata/usuarios.xlsx
+++ b/aDiary/usrdata/usuarios.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t/>
   </si>
@@ -26,13 +26,25 @@
     <t>false</t>
   </si>
   <si>
-    <t>Antonio</t>
+    <t>NuevoUsr</t>
   </si>
   <si>
-    <t>wena</t>
+    <t>hola</t>
   </si>
   <si>
-    <t>admin-Antonio</t>
+    <t>admin-NuevoUsr</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>UsuarioEjemplo</t>
+  </si>
+  <si>
+    <t>usr</t>
+  </si>
+  <si>
+    <t>admin-UsuarioEjemplo</t>
   </si>
 </sst>
 </file>
@@ -87,7 +99,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -128,6 +140,23 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>2</v>
       </c>
     </row>
